--- a/Operate/GUI/Overtimes Application Form.xlsx
+++ b/Operate/GUI/Overtimes Application Form.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Inorganic\Program\overtime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\work\Operate\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD99B9E-66EA-4240-84D9-E251EB0B2ADE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23955" windowHeight="9615" tabRatio="596" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="596" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="加班申请表-正式&amp;派遣&amp;外包" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Overtime Application Form</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -178,16 +179,22 @@
   <si>
     <t>Meal Allowance(RMB)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Dinner/Rest Time</t>
+  </si>
+  <si>
+    <t>（Yes or No）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[DBNum2][$-804]General&quot;分&quot;"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -273,6 +280,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -288,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -416,6 +430,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
@@ -430,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,18 +565,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -550,10 +583,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,10 +594,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -596,31 +621,126 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -632,36 +752,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 13" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -702,8 +804,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>950594</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179069</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>192404</xdr:rowOff>
     </xdr:to>
@@ -817,6 +919,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -852,6 +971,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1042,54 +1178,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="11" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="46" t="s">
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:8" ht="18">
+      <c r="A3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" ht="18">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1098,321 +1235,355 @@
       <c r="F4" s="18"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="20"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="22"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
+      <c r="G5" s="55"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="21"/>
       <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="52" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="26" t="s">
+      <c r="H8" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="G9" s="65"/>
+      <c r="H9" s="54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42">
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="37">
         <f>SUMIF($A$10:$A$30,"Weekday",$E$10:$E$30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="37" t="s">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="58"/>
+      <c r="B32" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42">
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37">
         <f>SUMIF($A$10:$A$30,"Weekend",$E$10:$E$30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="37" t="s">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="58"/>
+      <c r="B33" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42">
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="37">
         <f>SUMIF($A$10:$A$30,"Statutory Holiday",$E$10:$E$30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="37" t="s">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42">
-        <f>SUM(F10:F30)</f>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37">
+        <f>SUM(G10:G30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1421,7 +1592,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" ht="14.25">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="15" t="s">
         <v>18</v>
       </c>
@@ -1434,7 +1605,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1618,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" ht="14.25">
+    <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="7"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1458,7 +1629,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25">
+    <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
@@ -1467,7 +1638,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="14.25">
+    <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="2"/>
@@ -1476,7 +1647,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -1485,7 +1656,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -1494,7 +1665,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="2"/>
@@ -1503,7 +1674,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="2"/>
@@ -1512,7 +1683,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -1521,7 +1692,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1554,10 +1725,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sept,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="error" error="Please select correct overtime type" sqref="A10:A30">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="error" error="Please select correct overtime type" sqref="A10:A30" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Weekday,Weekend,Statutory Holiday"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Operate/GUI/Overtimes Application Form.xlsx
+++ b/Operate/GUI/Overtimes Application Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\work\Operate\GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Python\work\Operate\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD99B9E-66EA-4240-84D9-E251EB0B2ADE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D658426B-37A8-4974-96E3-28E2F2DA6C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="596" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="596" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -692,6 +695,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -751,12 +760,6 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1181,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,33 +1201,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="60"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" ht="18">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="13"/>
@@ -1236,10 +1239,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="20"/>
       <c r="D5" s="28"/>
       <c r="E5" s="41" t="s">
@@ -1247,50 +1250,50 @@
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="55"/>
-      <c r="H5" s="72"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="21"/>
       <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="56"/>
-      <c r="H6" s="73"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="66" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="53" t="s">
@@ -1298,15 +1301,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="67"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="54" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1525,7 @@
       <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="32" t="s">
@@ -1539,7 +1542,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="58"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="32" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1557,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="58"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="32" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1572,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="32" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37">
-        <f>SUM(G10:G30)</f>
+        <f>SUM(F10:F30)</f>
         <v>0</v>
       </c>
     </row>
